--- a/Elias/Day3/lec_openpyxl/trasfer_fee.xlsx
+++ b/Elias/Day3/lec_openpyxl/trasfer_fee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Desktop\lg_python_autotest\Elias\Day3\lec_openpyxl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\lg_autotest_23_04\Elias\Day3\lec_openpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65C2E9-EC0E-44C6-AB43-325ABB4EE3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0B8F9C-9EAF-47C4-B3D0-11F23AFE58B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2895" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="항공요금" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
